--- a/Excel/PlayerLevelConfig.xlsx
+++ b/Excel/PlayerLevelConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MyET\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1036EB2-AD3B-495D-A6C3-D0888FD64EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50B6C01-0DDB-4C8C-BDB2-FA504B15956F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="1005" windowWidth="22140" windowHeight="13920" xr2:uid="{2C9FA271-6E85-4C99-A3C0-F3E52A02C5D7}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="23190" windowHeight="13200" xr2:uid="{2C9FA271-6E85-4C99-A3C0-F3E52A02C5D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="C3:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -485,7 +485,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.2">
